--- a/data/input/employee_absence_data_34.xlsx
+++ b/data/input/employee_absence_data_34.xlsx
@@ -464,45 +464,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4667</v>
+        <v>34352</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bruna Ferreira</t>
+          <t>Vitor Hugo das Neves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45078</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>3858.82</v>
+        <v>7204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>47772</v>
+        <v>16397</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mathias Siqueira</t>
+          <t>Sophia Moraes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,85 +511,85 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45084</v>
+        <v>45100</v>
       </c>
       <c r="G3" t="n">
-        <v>7557.09</v>
+        <v>5523.55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>69817</v>
+        <v>36677</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Anthony Gabriel Barros</t>
+          <t>Laís Fogaça</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45085</v>
+        <v>45080</v>
       </c>
       <c r="G4" t="n">
-        <v>12006.11</v>
+        <v>2535.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>71023</v>
+        <v>9764</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aurora Peixoto</t>
+          <t>Cecilia Vieira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45081</v>
+        <v>45101</v>
       </c>
       <c r="G5" t="n">
-        <v>9232.42</v>
+        <v>7617.81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>56017</v>
+        <v>59442</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dante Campos</t>
+          <t>Ana Carolina da Mata</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,22 +598,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45098</v>
+        <v>45102</v>
       </c>
       <c r="G6" t="n">
-        <v>4073.1</v>
+        <v>6352.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>31345</v>
+        <v>9068</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Júlia Azevedo</t>
+          <t>Rebeca Pastor</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -627,129 +627,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45105</v>
+        <v>45088</v>
       </c>
       <c r="G7" t="n">
-        <v>2973.88</v>
+        <v>9030.99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>62825</v>
+        <v>81250</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Vitória Cardoso</t>
+          <t>Diogo da Costa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="G8" t="n">
-        <v>2503.16</v>
+        <v>6671.58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>74043</v>
+        <v>410</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sr. Enrico Pinto</t>
+          <t>Dr. Francisco Montenegro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45093</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>4075.89</v>
+        <v>9745.190000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30813</v>
+        <v>35113</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rhavi Garcia</t>
+          <t>Caleb Cunha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45100</v>
+        <v>45095</v>
       </c>
       <c r="G10" t="n">
-        <v>3774.48</v>
+        <v>9158.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16402</v>
+        <v>77887</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Laura Garcia</t>
+          <t>Lucas Gabriel Gonçalves</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45099</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>5762.44</v>
+        <v>2971.69</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_34.xlsx
+++ b/data/input/employee_absence_data_34.xlsx
@@ -464,11 +464,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34352</v>
+        <v>6659</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vitor Hugo das Neves</t>
+          <t>Sr. Anthony Gabriel da Cunha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,60 +478,60 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45094</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>7204</v>
+        <v>8981.07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16397</v>
+        <v>68072</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sophia Moraes</t>
+          <t>Luiza Borges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45100</v>
+        <v>45085</v>
       </c>
       <c r="G3" t="n">
-        <v>5523.55</v>
+        <v>4943.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>36677</v>
+        <v>23822</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Laís Fogaça</t>
+          <t>Vitória Garcia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,22 +540,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45080</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>2535.95</v>
+        <v>2635.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9764</v>
+        <v>84375</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cecilia Vieira</t>
+          <t>Ana Julia Caldeira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -565,142 +565,142 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45101</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>7617.81</v>
+        <v>9003.700000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>59442</v>
+        <v>96335</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Carolina da Mata</t>
+          <t>Maria Júlia Caldeira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>6352.33</v>
+        <v>2518.36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9068</v>
+        <v>25876</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rebeca Pastor</t>
+          <t>Lavínia Correia</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45088</v>
+        <v>45082</v>
       </c>
       <c r="G7" t="n">
-        <v>9030.99</v>
+        <v>2696.94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>81250</v>
+        <v>81581</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Diogo da Costa</t>
+          <t>Daniel Aparecida</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45096</v>
+        <v>45093</v>
       </c>
       <c r="G8" t="n">
-        <v>6671.58</v>
+        <v>7218.76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>410</v>
+        <v>68168</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. Francisco Montenegro</t>
+          <t>Benjamin Abreu</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45088</v>
+        <v>45093</v>
       </c>
       <c r="G9" t="n">
-        <v>9745.190000000001</v>
+        <v>9067.219999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>35113</v>
+        <v>29299</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Caleb Cunha</t>
+          <t>Sra. Mirella Porto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -710,46 +710,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45095</v>
+        <v>45087</v>
       </c>
       <c r="G10" t="n">
-        <v>9158.9</v>
+        <v>5211.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>77887</v>
+        <v>25776</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lucas Gabriel Gonçalves</t>
+          <t>Dom Aparecida</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45104</v>
+        <v>45079</v>
       </c>
       <c r="G11" t="n">
-        <v>2971.69</v>
+        <v>4121.83</v>
       </c>
     </row>
   </sheetData>
